--- a/BangKeHoach_QuanLiPhongTap.xlsx
+++ b/BangKeHoach_QuanLiPhongTap.xlsx
@@ -135,9 +135,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -194,6 +194,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -202,6 +269,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -211,16 +293,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,77 +316,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,29 +337,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +538,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,63 +630,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -643,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,134 +661,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,9 +868,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1197,12 +1194,12 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="48.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="49.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="88.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="25.8571428571429" style="5" customWidth="1"/>
     <col min="4" max="4" width="22.1428571428571" style="5" customWidth="1"/>
@@ -1212,7 +1209,7 @@
     <col min="8" max="8" width="22" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:8">
+    <row r="1" ht="33" customHeight="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1221,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" ht="25.5" spans="1:8">
+    <row r="2" ht="36" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1275,9 +1272,15 @@
       <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="14">
+        <v>43731</v>
+      </c>
+      <c r="F4" s="14">
+        <v>43732</v>
+      </c>
+      <c r="G4" s="14">
+        <v>43732</v>
+      </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="23.25" spans="1:8">
@@ -1293,10 +1296,18 @@
       <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="16">
+        <v>43725</v>
+      </c>
+      <c r="F5" s="16">
+        <v>43728</v>
+      </c>
+      <c r="G5" s="16">
+        <v>43725</v>
+      </c>
+      <c r="H5" s="16">
+        <v>43728</v>
+      </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="23.25" spans="2:8">
       <c r="B6" s="3" t="s">
@@ -1306,10 +1317,18 @@
         <v>12</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="E6" s="16">
+        <v>43728</v>
+      </c>
+      <c r="F6" s="16">
+        <v>43728</v>
+      </c>
+      <c r="G6" s="16">
+        <v>43728</v>
+      </c>
+      <c r="H6" s="16">
+        <v>43728</v>
+      </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="23.25" spans="1:8">
       <c r="A7" s="3" t="s">
@@ -1324,8 +1343,12 @@
       <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="16">
+        <v>43730</v>
+      </c>
+      <c r="F7" s="16">
+        <v>43748</v>
+      </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
@@ -1340,8 +1363,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="16">
+        <v>43734</v>
+      </c>
+      <c r="F8" s="16">
+        <v>43738</v>
+      </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
@@ -1353,8 +1380,12 @@
         <v>12</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="16">
+        <v>43739</v>
+      </c>
+      <c r="F9" s="16">
+        <v>43744</v>
+      </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
@@ -1369,8 +1400,12 @@
       <c r="D10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="16">
+        <v>43734</v>
+      </c>
+      <c r="F10" s="16">
+        <v>43747</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
@@ -1382,8 +1417,12 @@
       <c r="D11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="16">
+        <v>43739</v>
+      </c>
+      <c r="F11" s="16">
+        <v>43744</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
@@ -1398,8 +1437,12 @@
         <v>12</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="16">
+        <v>43745</v>
+      </c>
+      <c r="F12" s="16">
+        <v>43748</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
@@ -1411,8 +1454,12 @@
       <c r="D13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="16">
+        <v>43746</v>
+      </c>
+      <c r="F13" s="16">
+        <v>43749</v>
+      </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
@@ -1424,8 +1471,12 @@
         <v>12</v>
       </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="16">
+        <v>43749</v>
+      </c>
+      <c r="F14" s="16">
+        <v>43754</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
@@ -1437,8 +1488,12 @@
       <c r="D15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="16">
+        <v>43749</v>
+      </c>
+      <c r="F15" s="16">
+        <v>43754</v>
+      </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
@@ -1452,8 +1507,12 @@
       <c r="D16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="16">
+        <v>43755</v>
+      </c>
+      <c r="F16" s="16">
+        <v>43759</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
     </row>
@@ -1470,8 +1529,12 @@
       <c r="D17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="16">
+        <v>43760</v>
+      </c>
+      <c r="F17" s="16">
+        <v>43768</v>
+      </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
@@ -1594,12 +1657,12 @@
       <c r="H26" s="16"/>
     </row>
     <row r="27" s="4" customFormat="1" ht="23.25" spans="3:8">
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
